--- a/biology/Zoologie/Calao_pygmée/Calao_pygmée.xlsx
+++ b/biology/Zoologie/Calao_pygmée/Calao_pygmée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calao_pygm%C3%A9e</t>
+          <t>Calao_pygmée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lophoceros camurus
 Le Calao pygmée (Lophoceros camurus, anciennement Tockus camurus) est une espèce africaine d'oiseaux appartenant à la famille des Bucerotidae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calao_pygm%C3%A9e</t>
+          <t>Calao_pygmée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite des travaux phylogéniques de Gonzalez et al. (2013), le Congrès ornithologique international (dans sa version 4.4, 2014) déplace cette espèce depuis le genre Tockus.
 D'après le Congrès ornithologique international, c'est une espèce monotypique (non divisée en sous-espèces).
